--- a/5. 테스트 시나리오/테스트 시나리오_테스트 결과.xlsx
+++ b/5. 테스트 시나리오/테스트 시나리오_테스트 결과.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\funfun\5. 테스트 시나리오\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14895" yWindow="105" windowWidth="13275" windowHeight="12105" activeTab="5"/>
+    <workbookView xWindow="14895" yWindow="105" windowWidth="13275" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="메인화면" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2823,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2853,7 +2858,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3064,8 +3069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P219"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3222,7 +3227,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" spans="1:16" ht="92.25" customHeight="1">
+    <row r="8" spans="1:16" ht="141.75" customHeight="1">
       <c r="A8" s="3">
         <v>1001</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>117</v>
       </c>
       <c r="N8" s="23"/>
-      <c r="O8" s="22"/>
+      <c r="O8" s="25"/>
       <c r="P8" s="23"/>
     </row>
     <row r="9" spans="1:16" ht="164.25" customHeight="1">
@@ -18068,6 +18073,8 @@
     <mergeCell ref="K173:L173"/>
     <mergeCell ref="K174:L174"/>
     <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="B181:D181"/>
     <mergeCell ref="E181:G181"/>
     <mergeCell ref="H181:J181"/>
     <mergeCell ref="M181:N181"/>
@@ -18094,6 +18101,8 @@
     <mergeCell ref="K177:L177"/>
     <mergeCell ref="K178:L178"/>
     <mergeCell ref="K179:L179"/>
+    <mergeCell ref="E192:G192"/>
+    <mergeCell ref="H192:J192"/>
     <mergeCell ref="B186:D186"/>
     <mergeCell ref="E186:G186"/>
     <mergeCell ref="H190:J190"/>
@@ -18124,8 +18133,8 @@
     <mergeCell ref="B180:D180"/>
     <mergeCell ref="E180:G180"/>
     <mergeCell ref="H180:J180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="E201:G201"/>
     <mergeCell ref="B190:D190"/>
     <mergeCell ref="E190:G190"/>
     <mergeCell ref="E200:G200"/>
@@ -18156,8 +18165,8 @@
     <mergeCell ref="H187:J187"/>
     <mergeCell ref="M195:N195"/>
     <mergeCell ref="B192:D192"/>
-    <mergeCell ref="E192:G192"/>
-    <mergeCell ref="H192:J192"/>
+    <mergeCell ref="H204:J204"/>
+    <mergeCell ref="K204:L204"/>
     <mergeCell ref="B202:D202"/>
     <mergeCell ref="E202:G202"/>
     <mergeCell ref="H194:J194"/>
@@ -18188,8 +18197,8 @@
     <mergeCell ref="E193:G193"/>
     <mergeCell ref="M193:N193"/>
     <mergeCell ref="M200:N200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="H205:J205"/>
+    <mergeCell ref="K205:L205"/>
     <mergeCell ref="H193:J193"/>
     <mergeCell ref="M201:N201"/>
     <mergeCell ref="K192:L192"/>
@@ -18220,10 +18229,6 @@
     <mergeCell ref="K202:L202"/>
     <mergeCell ref="H203:J203"/>
     <mergeCell ref="K203:L203"/>
-    <mergeCell ref="H204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="H205:J205"/>
-    <mergeCell ref="K205:L205"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -28657,7 +28662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M11" sqref="M11:N11"/>
     </sheetView>
   </sheetViews>
